--- a/data/trans_dic/P15B_tráfico-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P15B_tráfico-Clase-trans_dic.xlsx
@@ -711,37 +711,37 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09436795130792304</v>
+        <v>0.1086345584957804</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.09682278770847928</v>
+        <v>0.09525147973623189</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1254142714669596</v>
+        <v>0.1205038102813984</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1160715750339023</v>
+        <v>0.1157457524984684</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1169069424868494</v>
+        <v>0.1155358126211638</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1462625428858164</v>
+        <v>0.1407839320720941</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.06940496795457607</v>
+        <v>0.0735389936830611</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1531334421157994</v>
+        <v>0.1544174299240551</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3887501335644277</v>
+        <v>0.4284132482562445</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4600547932074737</v>
+        <v>0.4557166483257233</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.497338624255852</v>
+        <v>0.5199278426248952</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4876460121086117</v>
+        <v>0.5178447731700779</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5739818109588255</v>
+        <v>0.5715211615968864</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6393525671315333</v>
+        <v>0.6109742965370492</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2512157161845534</v>
+        <v>0.2326507092435106</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3810881135447393</v>
+        <v>0.3859493571175719</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3104807386565103</v>
+        <v>0.3202509510438616</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.435259941264496</v>
+        <v>0.4403260696566011</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3368164534088652</v>
+        <v>0.317368719749728</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3899324288250999</v>
+        <v>0.3828016101514494</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.2002804319796353</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.330152380844324</v>
+        <v>0.3301523808443239</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.5545487148530479</v>
@@ -833,7 +833,7 @@
         <v>0.2386172132026868</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.3550506190343358</v>
+        <v>0.3550506190343357</v>
       </c>
     </row>
     <row r="8">
@@ -844,38 +844,38 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0815295955812002</v>
+        <v>0.08103560807644224</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2048103181185569</v>
+        <v>0.2028908243646665</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1110235867744372</v>
+        <v>0.1048343596214113</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1720921802921006</v>
+        <v>0.1820597965627616</v>
       </c>
       <c r="G8" s="5" t="inlineStr"/>
       <c r="H8" s="5" t="n">
-        <v>0.1642802791841631</v>
+        <v>0.1734925168662288</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04098101501747446</v>
+        <v>0.04605501971012741</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1736874486749601</v>
+        <v>0.1965604486242151</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3203514310488635</v>
+        <v>0.329735292822823</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2271124528012354</v>
+        <v>0.2399856854537514</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1193770194491858</v>
+        <v>0.122318528553863</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2249717629336202</v>
+        <v>0.2312098792343916</v>
       </c>
     </row>
     <row r="9">
@@ -886,38 +886,38 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6798096728166491</v>
+        <v>0.6484465325473927</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5414140011854145</v>
+        <v>0.5433058123191925</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.528064392825807</v>
+        <v>0.5273351738820609</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6127067044861814</v>
+        <v>0.6342727952803114</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="n">
-        <v>0.5750432490250859</v>
+        <v>0.5794778127091228</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4493035031623485</v>
+        <v>0.4618458885309296</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4942543943701954</v>
+        <v>0.5011956247097842</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.7694215104373909</v>
+        <v>0.7661921843355333</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.494796361261235</v>
+        <v>0.481540069193398</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4001290195856747</v>
+        <v>0.4095252238191223</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.5068810402896125</v>
+        <v>0.5200853832915853</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.1354784910235488</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.3432842614625599</v>
+        <v>0.34328426146256</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0.3144249913778303</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.1369626961741537</v>
+        <v>0.1369626961741536</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.07575394882250838</v>
@@ -976,38 +976,38 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02777923386761501</v>
+        <v>0.02774331076992785</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1717622889473142</v>
+        <v>0.1708140541228745</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0356931739555584</v>
+        <v>0.03525723936576004</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2024919688464277</v>
+        <v>0.2071727407781022</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="n">
-        <v>0.06814889732619982</v>
+        <v>0.06696182842606913</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.09223736756539394</v>
+        <v>0.09399016848668702</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03408300198442339</v>
+        <v>0.0386544663029899</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02368108048183955</v>
+        <v>0.02366061342814561</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1761772962608301</v>
+        <v>0.1689032499954316</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.07751566535802594</v>
+        <v>0.07612204293343869</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1699559820693264</v>
+        <v>0.1779593315214413</v>
       </c>
     </row>
     <row r="12">
@@ -1018,38 +1018,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2288026590023398</v>
+        <v>0.260655969596317</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4136532543958457</v>
+        <v>0.4244466319397538</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3085530231195512</v>
+        <v>0.3006238513009226</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5049764314086337</v>
+        <v>0.5238772595507285</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.5563871730159028</v>
+        <v>0.5943913003958476</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6566335261874084</v>
+        <v>0.6626254898582804</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3513708082568346</v>
+        <v>0.3647437125682289</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1980073540211413</v>
+        <v>0.1879579922212696</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3886237267041521</v>
+        <v>0.394047748914673</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3361482593983593</v>
+        <v>0.3262780842932299</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4185406571239833</v>
+        <v>0.4215952264810588</v>
       </c>
     </row>
     <row r="13">
@@ -1073,7 +1073,7 @@
         <v>0.2924048224469765</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2309178093368444</v>
+        <v>0.2309178093368443</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2499417735730954</v>
@@ -1108,40 +1108,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2690741617583032</v>
+        <v>0.2634873796950049</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.136315315348288</v>
+        <v>0.1440748669325509</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1826114049067179</v>
+        <v>0.1795172458602121</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1371246010738604</v>
+        <v>0.1270552614140522</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1137864010871577</v>
+        <v>0.09151876375883237</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1037509030211969</v>
+        <v>0.09963349417515907</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1385586582667314</v>
+        <v>0.1328733076499229</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1099997986926352</v>
+        <v>0.1114045874819217</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2423229615738821</v>
+        <v>0.2333012347984747</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1517581726311719</v>
+        <v>0.1517700619760321</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.197332664897987</v>
+        <v>0.1997394089915505</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1489843238340244</v>
+        <v>0.1539486790404783</v>
       </c>
     </row>
     <row r="15">
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5854108566547628</v>
+        <v>0.5733432194549763</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.309384086082806</v>
+        <v>0.3179559251870474</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4306488912656131</v>
+        <v>0.4225378669023441</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3661220982205506</v>
+        <v>0.3629515321454996</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4609836533966488</v>
+        <v>0.4646248489003822</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3322424006149501</v>
+        <v>0.3304379714258324</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4167920377420938</v>
+        <v>0.4279905965162696</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3306010469353069</v>
+        <v>0.333279130470991</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4740205738246488</v>
+        <v>0.4875489391642988</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2987035006676713</v>
+        <v>0.2888114258849381</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3845713152179234</v>
+        <v>0.3840638088182271</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.319984031575397</v>
+        <v>0.3247596312706751</v>
       </c>
     </row>
     <row r="16">
@@ -1221,7 +1221,7 @@
         <v>0.1128265428179206</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.198055612626238</v>
+        <v>0.1980556126262381</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.3380607735596264</v>
@@ -1233,7 +1233,7 @@
         <v>0.1293202141921232</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.1929443953602831</v>
+        <v>0.192944395360283</v>
       </c>
     </row>
     <row r="17">
@@ -1244,40 +1244,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2740832675790409</v>
+        <v>0.2422935519612394</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1038172315339128</v>
+        <v>0.1164681661379156</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05110108314362152</v>
+        <v>0.0521220691077666</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07574458735953571</v>
+        <v>0.06875191555354995</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.08156195833812052</v>
+        <v>0.0815468883485346</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.07365314256670026</v>
+        <v>0.08242004107484524</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04233961628695633</v>
+        <v>0.02636253544621659</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1056111561489619</v>
+        <v>0.1020440564331725</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1922363795281352</v>
+        <v>0.2015800313810205</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1205803245005736</v>
+        <v>0.1128668268294663</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.06733460685237896</v>
+        <v>0.07201243448161558</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1143620194750453</v>
+        <v>0.1204749822778618</v>
       </c>
     </row>
     <row r="18">
@@ -1288,40 +1288,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8408656567879259</v>
+        <v>0.8140238448069644</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4048661138425653</v>
+        <v>0.3955405027699003</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2840880835646488</v>
+        <v>0.2833472279590283</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3478629455319151</v>
+        <v>0.3357893475994185</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4113866966638883</v>
+        <v>0.4294510481654453</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2741713599723419</v>
+        <v>0.2900065116530741</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2413021635381654</v>
+        <v>0.2363992106305857</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3844975200160834</v>
+        <v>0.3743516842325224</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5179461568112805</v>
+        <v>0.5095230427126443</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2754521017944483</v>
+        <v>0.278938666506246</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2051256529915114</v>
+        <v>0.2190083404809605</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3028909468943323</v>
+        <v>0.2999875300521698</v>
       </c>
     </row>
     <row r="19">
@@ -1357,7 +1357,7 @@
         <v>0.1535178270715875</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.2148095771320872</v>
+        <v>0.2148095771320873</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.2337033662237691</v>
@@ -1369,7 +1369,7 @@
         <v>0.1578076901297343</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.2495312794598947</v>
+        <v>0.2495312794598948</v>
       </c>
     </row>
     <row r="20">
@@ -1380,13 +1380,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2441046785290791</v>
+        <v>0.2559513370980855</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1468905017719084</v>
+        <v>0.145236149202899</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.06358884214753312</v>
+        <v>0.06361531929118773</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
@@ -1395,25 +1395,25 @@
         <v>0</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.06729508670790725</v>
+        <v>0.06213724147736046</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.0741556684443333</v>
+        <v>0.06868236796754569</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.09107880692514497</v>
+        <v>0.1057406679191877</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1269066193623252</v>
+        <v>0.1228743627957639</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1038458591061755</v>
+        <v>0.09978871909814567</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.09030081454495571</v>
+        <v>0.0881177536686724</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1285317489076402</v>
+        <v>0.1324986255784812</v>
       </c>
     </row>
     <row r="21">
@@ -1424,40 +1424,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7516668209608712</v>
+        <v>0.7421549458524689</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5005482997323228</v>
+        <v>0.478434288543522</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3386860416718129</v>
+        <v>0.3456687283836617</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.8609204090599293</v>
+        <v>0.8123662114962344</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2525391542003857</v>
+        <v>0.2281581474489067</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2048726855750712</v>
+        <v>0.194751304532082</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2839506624615584</v>
+        <v>0.2731650812701864</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3893665754281993</v>
+        <v>0.4127712964527572</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.366345209407656</v>
+        <v>0.3705546214807018</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2362892116325407</v>
+        <v>0.2344755054512455</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2593716533981362</v>
+        <v>0.2487536856574993</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4257337431893853</v>
+        <v>0.41015047881002</v>
       </c>
     </row>
     <row r="22">
@@ -1505,7 +1505,7 @@
         <v>0.1927680054757041</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.2449886725550053</v>
+        <v>0.2449886725550054</v>
       </c>
     </row>
     <row r="23">
@@ -1516,40 +1516,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.24056878792385</v>
+        <v>0.2467158335649479</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2094405095363446</v>
+        <v>0.2065912829350988</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1641820121832644</v>
+        <v>0.1643357651045166</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2025095839026955</v>
+        <v>0.2119728340814122</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1316904500080397</v>
+        <v>0.133595793279521</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.144664184189985</v>
+        <v>0.137585550048613</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1186644548354692</v>
+        <v>0.1180463624590602</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1677516038238759</v>
+        <v>0.164381999786519</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2162222605586935</v>
+        <v>0.2182179710458731</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1878209631863896</v>
+        <v>0.1909658620308997</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1560662216198467</v>
+        <v>0.1532792721136718</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2028778733640734</v>
+        <v>0.2045207284193015</v>
       </c>
     </row>
     <row r="24">
@@ -1560,40 +1560,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4098143149139103</v>
+        <v>0.421262367994353</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3159262754222935</v>
+        <v>0.3121480792131686</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2816978945282498</v>
+        <v>0.2843156618762898</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.348883708624344</v>
+        <v>0.3546499683952007</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3045724217322173</v>
+        <v>0.3003397287403855</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2435895379763178</v>
+        <v>0.2393188441249156</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.22975898931318</v>
+        <v>0.2279754496763468</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.284199941090535</v>
+        <v>0.2839237303851788</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3409252232414019</v>
+        <v>0.3413414318687495</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2604894028154898</v>
+        <v>0.2679466037707434</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2394675345479297</v>
+        <v>0.2370460040923512</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2954165368749104</v>
+        <v>0.3012704365214325</v>
       </c>
     </row>
     <row r="25">
@@ -1869,37 +1869,37 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3205</v>
+        <v>3689</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2085</v>
+        <v>2051</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3244</v>
+        <v>3117</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3062</v>
+        <v>3026</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>7502</v>
+        <v>7221</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>2888</v>
+        <v>3060</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>7972</v>
+        <v>8038</v>
       </c>
     </row>
     <row r="7">
@@ -1910,40 +1910,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4897</v>
+        <v>5397</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>15624</v>
+        <v>15477</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>10711</v>
+        <v>11197</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>12614</v>
+        <v>13395</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>4455</v>
+        <v>4436</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>11079</v>
+        <v>10588</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>5042</v>
+        <v>4669</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>9980</v>
+        <v>10107</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>6321</v>
+        <v>6520</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>22325</v>
+        <v>22585</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>14014</v>
+        <v>13204</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>20298</v>
+        <v>19927</v>
       </c>
     </row>
     <row r="8">
@@ -2046,38 +2046,38 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6453</v>
+        <v>6392</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1872</v>
+        <v>1768</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>4428</v>
+        <v>4685</v>
       </c>
       <c r="G10" s="6" t="inlineStr"/>
       <c r="H10" s="6" t="n">
-        <v>4244</v>
+        <v>4482</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>905</v>
+        <v>1017</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>4339</v>
+        <v>4911</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>6044</v>
+        <v>6221</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>13022</v>
+        <v>13760</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>4649</v>
+        <v>4764</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>11409</v>
+        <v>11726</v>
       </c>
     </row>
     <row r="11">
@@ -2088,38 +2088,38 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9029</v>
+        <v>8612</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>17057</v>
+        <v>17117</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>8903</v>
+        <v>8891</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>15766</v>
+        <v>16321</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>14855</v>
+        <v>14969</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>9923</v>
+        <v>10200</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>12348</v>
+        <v>12521</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>14517</v>
+        <v>14457</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>28370</v>
+        <v>27610</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>15583</v>
+        <v>15949</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>25706</v>
+        <v>26376</v>
       </c>
     </row>
     <row r="12">
@@ -2222,38 +2222,38 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>10271</v>
+        <v>10214</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1109</v>
+        <v>1095</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>7322</v>
+        <v>7491</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>1023</v>
+        <v>1005</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>921</v>
+        <v>938</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>432</v>
+        <v>490</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>787</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>13180</v>
+        <v>12636</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>3182</v>
+        <v>3125</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>8302</v>
+        <v>8693</v>
       </c>
     </row>
     <row r="15">
@@ -2264,38 +2264,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6472</v>
+        <v>7373</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>24735</v>
+        <v>25381</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9586</v>
+        <v>9339</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>18259</v>
+        <v>18943</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>8353</v>
+        <v>8924</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>6556</v>
+        <v>6616</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>4458</v>
+        <v>4628</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>6582</v>
+        <v>6248</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>29073</v>
+        <v>29479</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>13800</v>
+        <v>13395</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>20445</v>
+        <v>20594</v>
       </c>
     </row>
     <row r="16">
@@ -2398,40 +2398,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>10500</v>
+        <v>10282</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>13034</v>
+        <v>13776</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>10773</v>
+        <v>10590</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>10666</v>
+        <v>9882</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2846</v>
+        <v>2289</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5050</v>
+        <v>4850</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>5330</v>
+        <v>5111</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>6093</v>
+        <v>6171</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>15516</v>
+        <v>14939</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>21899</v>
+        <v>21900</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>19231</v>
+        <v>19466</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>19841</v>
+        <v>20502</v>
       </c>
     </row>
     <row r="19">
@@ -2442,40 +2442,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>22844</v>
+        <v>22374</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>29583</v>
+        <v>30403</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>25405</v>
+        <v>24926</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>28477</v>
+        <v>28230</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>11529</v>
+        <v>11620</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>16173</v>
+        <v>16085</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>16032</v>
+        <v>16463</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>18313</v>
+        <v>18462</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>30352</v>
+        <v>31219</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>43103</v>
+        <v>41675</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>37479</v>
+        <v>37430</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>42614</v>
+        <v>43250</v>
       </c>
     </row>
     <row r="20">
@@ -2578,40 +2578,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3465</v>
+        <v>3063</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>4076</v>
+        <v>4573</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2084</v>
+        <v>2125</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3054</v>
+        <v>2772</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>1831</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>4289</v>
+        <v>4799</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1711</v>
+        <v>1065</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>6016</v>
+        <v>5812</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>6746</v>
+        <v>7073</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>11755</v>
+        <v>11003</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>5467</v>
+        <v>5847</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>11125</v>
+        <v>11720</v>
       </c>
     </row>
     <row r="23">
@@ -2622,40 +2622,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>10629</v>
+        <v>10290</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>15896</v>
+        <v>15530</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>11584</v>
+        <v>11554</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>14026</v>
+        <v>13539</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>9235</v>
+        <v>9640</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>15964</v>
+        <v>16886</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>9751</v>
+        <v>9553</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>21901</v>
+        <v>21323</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>18175</v>
+        <v>17879</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>26854</v>
+        <v>27193</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>16654</v>
+        <v>17781</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>29466</v>
+        <v>29183</v>
       </c>
     </row>
     <row r="24">
@@ -2758,10 +2758,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>3953</v>
+        <v>4144</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>3940</v>
+        <v>3896</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>1815</v>
@@ -2773,25 +2773,25 @@
         <v>0</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>6078</v>
+        <v>5613</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>4482</v>
+        <v>4151</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>4481</v>
+        <v>5202</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>5614</v>
+        <v>5435</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>12166</v>
+        <v>11690</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>8034</v>
+        <v>7840</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>7766</v>
+        <v>8006</v>
       </c>
     </row>
     <row r="27">
@@ -2802,40 +2802,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>12171</v>
+        <v>12017</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>13427</v>
+        <v>12834</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>9665</v>
+        <v>9865</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>9661</v>
+        <v>9116</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>7082</v>
+        <v>6398</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>18505</v>
+        <v>17591</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>17161</v>
+        <v>16509</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>19156</v>
+        <v>20308</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>16205</v>
+        <v>16391</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>27681</v>
+        <v>27469</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>23077</v>
+        <v>22132</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>25723</v>
+        <v>24781</v>
       </c>
     </row>
     <row r="28">
@@ -2938,40 +2938,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>29354</v>
+        <v>30104</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>60104</v>
+        <v>59286</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>32470</v>
+        <v>32501</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>43961</v>
+        <v>46015</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>12353</v>
+        <v>12532</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>36948</v>
+        <v>35140</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>22719</v>
+        <v>22600</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>37813</v>
+        <v>37054</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>46666</v>
+        <v>47097</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>101870</v>
+        <v>103575</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>60745</v>
+        <v>59660</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>89772</v>
+        <v>90499</v>
       </c>
     </row>
     <row r="31">
@@ -2982,40 +2982,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>50006</v>
+        <v>51402</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>90662</v>
+        <v>89578</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>55711</v>
+        <v>56229</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>75736</v>
+        <v>76988</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>28571</v>
+        <v>28174</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>62214</v>
+        <v>61123</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>43988</v>
+        <v>43647</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>64062</v>
+        <v>64000</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>73580</v>
+        <v>73670</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>141283</v>
+        <v>145328</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>93206</v>
+        <v>92264</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>130719</v>
+        <v>133310</v>
       </c>
     </row>
     <row r="32">
